--- a/Data/Skyros List.xlsx
+++ b/Data/Skyros List.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eranee\Desktop\Beetles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B328BB-FACF-402B-9BAB-6C5A130836AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD4F63-8630-43EE-AA93-2165A074355A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{983DCE97-DC4A-4F6A-9F48-E813D0A7A667}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{983DCE97-DC4A-4F6A-9F48-E813D0A7A667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AT$84</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="128">
   <si>
     <t>Omaliinae</t>
   </si>
@@ -396,6 +400,24 @@
   </si>
   <si>
     <t>Oxypoda alternans</t>
+  </si>
+  <si>
+    <t>Medon dilutus cephalus</t>
+  </si>
+  <si>
+    <t>Aloconota cambrica</t>
+  </si>
+  <si>
+    <t>Falagria sulcatula</t>
+  </si>
+  <si>
+    <t>Myllaena intermedia</t>
+  </si>
+  <si>
+    <t>Ischnopoda umbratica</t>
+  </si>
+  <si>
+    <t>Lathrobium creticum</t>
   </si>
 </sst>
 </file>
@@ -757,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3126BC85-CBBC-4973-B6A7-AA5644100AFA}">
-  <dimension ref="A1:AT78"/>
+  <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH77" sqref="AH77"/>
+      <selection pane="bottomRight" activeCell="AU85" sqref="AU85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3328,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="Y24">
-        <f t="shared" ref="Y24:Y49" si="2">SUM(C24:X24)</f>
+        <f t="shared" ref="Y24:Y53" si="2">SUM(C24:X24)</f>
         <v>1</v>
       </c>
       <c r="Z24" t="s">
@@ -3398,7 +3420,7 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -3406,8 +3428,8 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -3424,8 +3446,8 @@
       <c r="I25" t="s">
         <v>12</v>
       </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
       <c r="K25" t="s">
         <v>12</v>
@@ -3469,10 +3491,6 @@
       <c r="X25" t="s">
         <v>12</v>
       </c>
-      <c r="Y25">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="Z25" t="s">
         <v>12</v>
       </c>
@@ -3500,8 +3518,8 @@
       <c r="AH25" t="s">
         <v>12</v>
       </c>
-      <c r="AI25" t="s">
-        <v>12</v>
+      <c r="AI25">
+        <v>1</v>
       </c>
       <c r="AJ25" t="s">
         <v>12</v>
@@ -3535,12 +3553,12 @@
       </c>
       <c r="AT25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -3548,8 +3566,8 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -3567,13 +3585,13 @@
         <v>12</v>
       </c>
       <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
@@ -3602,8 +3620,8 @@
       <c r="U26" t="s">
         <v>12</v>
       </c>
-      <c r="V26">
-        <v>1</v>
+      <c r="V26" t="s">
+        <v>12</v>
       </c>
       <c r="W26" t="s">
         <v>12</v>
@@ -3613,7 +3631,7 @@
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="s">
         <v>12</v>
@@ -3682,7 +3700,7 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -3699,8 +3717,8 @@
       <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G27">
-        <v>1</v>
+      <c r="G27" t="s">
+        <v>12</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -3708,14 +3726,14 @@
       <c r="I27" t="s">
         <v>12</v>
       </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
@@ -3726,8 +3744,8 @@
       <c r="O27" t="s">
         <v>12</v>
       </c>
-      <c r="P27">
-        <v>1</v>
+      <c r="P27" t="s">
+        <v>12</v>
       </c>
       <c r="Q27" t="s">
         <v>12</v>
@@ -3745,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W27" t="s">
         <v>12</v>
@@ -3755,7 +3773,7 @@
       </c>
       <c r="Y27">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="s">
         <v>12</v>
@@ -3824,7 +3842,7 @@
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -3841,8 +3859,8 @@
       <c r="F28" t="s">
         <v>12</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -3850,54 +3868,54 @@
       <c r="I28" t="s">
         <v>12</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28">
         <v>5</v>
       </c>
-      <c r="M28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28">
-        <v>5</v>
-      </c>
-      <c r="V28">
-        <v>3</v>
-      </c>
       <c r="W28" t="s">
         <v>12</v>
       </c>
-      <c r="X28">
-        <v>1</v>
+      <c r="X28" t="s">
+        <v>12</v>
       </c>
       <c r="Y28">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="s">
         <v>12</v>
@@ -3966,7 +3984,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -3993,13 +4011,13 @@
         <v>12</v>
       </c>
       <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>12</v>
+      <c r="L29">
+        <v>5</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
@@ -4029,23 +4047,23 @@
         <v>5</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W29" t="s">
         <v>12</v>
       </c>
       <c r="X29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" t="s">
-        <v>12</v>
+      <c r="AA29">
+        <v>1</v>
       </c>
       <c r="AB29" t="s">
         <v>12</v>
@@ -4056,8 +4074,8 @@
       <c r="AD29" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" t="s">
-        <v>12</v>
+      <c r="AE29">
+        <v>3</v>
       </c>
       <c r="AF29" t="s">
         <v>12</v>
@@ -4103,12 +4121,12 @@
       </c>
       <c r="AT29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -4135,10 +4153,10 @@
         <v>12</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -4168,20 +4186,20 @@
         <v>12</v>
       </c>
       <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
       </c>
       <c r="W30" t="s">
         <v>12</v>
       </c>
-      <c r="X30" t="s">
-        <v>12</v>
+      <c r="X30">
+        <v>11</v>
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="s">
         <v>12</v>
@@ -4250,7 +4268,7 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -4312,8 +4330,8 @@
       <c r="U31">
         <v>1</v>
       </c>
-      <c r="V31">
-        <v>2</v>
+      <c r="V31" t="s">
+        <v>12</v>
       </c>
       <c r="W31" t="s">
         <v>12</v>
@@ -4323,13 +4341,13 @@
       </c>
       <c r="Y31">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>14</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
       </c>
       <c r="AB31" t="s">
         <v>12</v>
@@ -4340,8 +4358,8 @@
       <c r="AD31" t="s">
         <v>12</v>
       </c>
-      <c r="AE31" t="s">
-        <v>12</v>
+      <c r="AE31">
+        <v>9</v>
       </c>
       <c r="AF31" t="s">
         <v>12</v>
@@ -4379,20 +4397,20 @@
       <c r="AQ31" t="s">
         <v>12</v>
       </c>
-      <c r="AR31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>12</v>
+      <c r="AR31">
+        <v>10</v>
+      </c>
+      <c r="AS31">
+        <v>2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -4409,8 +4427,8 @@
       <c r="F32" t="s">
         <v>12</v>
       </c>
-      <c r="G32">
-        <v>1</v>
+      <c r="G32" t="s">
+        <v>12</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -4421,14 +4439,14 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>1</v>
+      <c r="K32" t="s">
+        <v>12</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
       </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>12</v>
       </c>
       <c r="N32" t="s">
         <v>12</v>
@@ -4452,20 +4470,20 @@
         <v>12</v>
       </c>
       <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="V32" t="s">
-        <v>12</v>
-      </c>
       <c r="W32" t="s">
         <v>12</v>
       </c>
-      <c r="X32">
-        <v>2</v>
+      <c r="X32" t="s">
+        <v>12</v>
       </c>
       <c r="Y32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z32" t="s">
         <v>12</v>
@@ -4534,7 +4552,7 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -4560,17 +4578,17 @@
       <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="J33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" t="s">
-        <v>12</v>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
       </c>
-      <c r="M33" t="s">
-        <v>12</v>
+      <c r="M33">
+        <v>1</v>
       </c>
       <c r="N33" t="s">
         <v>12</v>
@@ -4593,8 +4611,8 @@
       <c r="T33" t="s">
         <v>12</v>
       </c>
-      <c r="U33" t="s">
-        <v>12</v>
+      <c r="U33">
+        <v>2</v>
       </c>
       <c r="V33" t="s">
         <v>12</v>
@@ -4602,12 +4620,12 @@
       <c r="W33" t="s">
         <v>12</v>
       </c>
-      <c r="X33" t="s">
-        <v>12</v>
+      <c r="X33">
+        <v>2</v>
       </c>
       <c r="Y33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z33" t="s">
         <v>12</v>
@@ -4676,7 +4694,7 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -4693,8 +4711,8 @@
       <c r="F34" t="s">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -4735,21 +4753,21 @@
       <c r="T34" t="s">
         <v>12</v>
       </c>
-      <c r="U34">
-        <v>4</v>
-      </c>
-      <c r="V34">
-        <v>7</v>
-      </c>
-      <c r="W34">
-        <v>3</v>
+      <c r="U34" t="s">
+        <v>12</v>
+      </c>
+      <c r="V34" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" t="s">
+        <v>12</v>
       </c>
       <c r="X34" t="s">
         <v>12</v>
       </c>
       <c r="Y34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="s">
         <v>12</v>
@@ -4818,7 +4836,7 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -4838,60 +4856,60 @@
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
         <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W35" t="s">
-        <v>12</v>
       </c>
       <c r="X35" t="s">
         <v>12</v>
       </c>
       <c r="Y35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="s">
         <v>12</v>
@@ -4960,7 +4978,7 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -4980,8 +4998,8 @@
       <c r="G36" t="s">
         <v>12</v>
       </c>
-      <c r="H36" t="s">
-        <v>12</v>
+      <c r="H36">
+        <v>3</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -5019,22 +5037,22 @@
       <c r="T36" t="s">
         <v>12</v>
       </c>
-      <c r="U36">
+      <c r="U36" t="s">
+        <v>12</v>
+      </c>
+      <c r="V36" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="V36" t="s">
-        <v>12</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" ref="Y36" si="3">SUM(C36:X36)</f>
-        <v>5</v>
-      </c>
       <c r="Z36" t="s">
         <v>12</v>
       </c>
@@ -5096,13 +5114,13 @@
         <v>12</v>
       </c>
       <c r="AT36">
-        <f t="shared" ref="AT36" si="4">SUM(Z36:AS36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -5149,8 +5167,8 @@
       <c r="P37" t="s">
         <v>12</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
+      <c r="Q37" t="s">
+        <v>12</v>
       </c>
       <c r="R37" t="s">
         <v>12</v>
@@ -5162,20 +5180,20 @@
         <v>12</v>
       </c>
       <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="V37" t="s">
+        <v>12</v>
       </c>
       <c r="W37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" ref="Y37" si="3">SUM(C37:X37)</f>
+        <v>5</v>
       </c>
       <c r="Z37" t="s">
         <v>12</v>
@@ -5244,7 +5262,7 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -5258,8 +5276,8 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38">
-        <v>3</v>
+      <c r="F38" t="s">
+        <v>12</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -5315,9 +5333,8 @@
       <c r="X38" t="s">
         <v>12</v>
       </c>
-      <c r="Y38">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="Y38" t="s">
+        <v>12</v>
       </c>
       <c r="Z38" t="s">
         <v>12</v>
@@ -5352,8 +5369,8 @@
       <c r="AJ38" t="s">
         <v>12</v>
       </c>
-      <c r="AK38" t="s">
-        <v>12</v>
+      <c r="AK38">
+        <v>1</v>
       </c>
       <c r="AL38" t="s">
         <v>12</v>
@@ -5381,12 +5398,12 @@
       </c>
       <c r="AT38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -5412,8 +5429,8 @@
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="J39" t="s">
+        <v>12</v>
       </c>
       <c r="K39" t="s">
         <v>12</v>
@@ -5433,8 +5450,8 @@
       <c r="P39" t="s">
         <v>12</v>
       </c>
-      <c r="Q39" t="s">
-        <v>12</v>
+      <c r="Q39">
+        <v>1</v>
       </c>
       <c r="R39" t="s">
         <v>12</v>
@@ -5445,21 +5462,21 @@
       <c r="T39" t="s">
         <v>12</v>
       </c>
-      <c r="U39" t="s">
-        <v>12</v>
-      </c>
-      <c r="V39" t="s">
-        <v>12</v>
-      </c>
-      <c r="W39" t="s">
-        <v>12</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>7</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
         <v>12</v>
       </c>
       <c r="Y39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Z39" t="s">
         <v>12</v>
@@ -5528,7 +5545,7 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -5554,8 +5571,8 @@
       <c r="I40" t="s">
         <v>12</v>
       </c>
-      <c r="J40">
-        <v>2</v>
+      <c r="J40" t="s">
+        <v>12</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -5587,8 +5604,8 @@
       <c r="T40" t="s">
         <v>12</v>
       </c>
-      <c r="U40">
-        <v>1</v>
+      <c r="U40" t="s">
+        <v>12</v>
       </c>
       <c r="V40" t="s">
         <v>12</v>
@@ -5596,15 +5613,14 @@
       <c r="W40" t="s">
         <v>12</v>
       </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>12</v>
+      <c r="X40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>26</v>
       </c>
       <c r="AA40" t="s">
         <v>12</v>
@@ -5665,12 +5681,12 @@
       </c>
       <c r="AT40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -5684,8 +5700,8 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
+      <c r="F41">
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -5714,8 +5730,8 @@
       <c r="O41" t="s">
         <v>12</v>
       </c>
-      <c r="P41">
-        <v>1</v>
+      <c r="P41" t="s">
+        <v>12</v>
       </c>
       <c r="Q41" t="s">
         <v>12</v>
@@ -5729,21 +5745,21 @@
       <c r="T41" t="s">
         <v>12</v>
       </c>
-      <c r="U41">
-        <v>2</v>
+      <c r="U41" t="s">
+        <v>12</v>
       </c>
       <c r="V41" t="s">
         <v>12</v>
       </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
+      <c r="W41" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" t="s">
+        <v>12</v>
       </c>
       <c r="Y41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z41" t="s">
         <v>12</v>
@@ -5812,7 +5828,7 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
@@ -5838,14 +5854,14 @@
       <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="J42" t="s">
-        <v>12</v>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="L42">
-        <v>3</v>
+      <c r="L42" t="s">
+        <v>12</v>
       </c>
       <c r="M42" t="s">
         <v>12</v>
@@ -5885,7 +5901,7 @@
       </c>
       <c r="Y42">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="s">
         <v>12</v>
@@ -5954,7 +5970,7 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -5962,8 +5978,8 @@
       <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="s">
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -6013,24 +6029,23 @@
       <c r="T43" t="s">
         <v>12</v>
       </c>
-      <c r="U43">
-        <v>6</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>4</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>12</v>
+      <c r="U43" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
       </c>
       <c r="AA43" t="s">
         <v>12</v>
@@ -6091,12 +6106,12 @@
       </c>
       <c r="AT43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -6123,13 +6138,13 @@
         <v>12</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
       </c>
-      <c r="L44">
-        <v>1</v>
+      <c r="L44" t="s">
+        <v>12</v>
       </c>
       <c r="M44" t="s">
         <v>12</v>
@@ -6155,8 +6170,8 @@
       <c r="T44" t="s">
         <v>12</v>
       </c>
-      <c r="U44" t="s">
-        <v>12</v>
+      <c r="U44">
+        <v>1</v>
       </c>
       <c r="V44" t="s">
         <v>12</v>
@@ -6164,12 +6179,12 @@
       <c r="W44" t="s">
         <v>12</v>
       </c>
-      <c r="X44" t="s">
-        <v>12</v>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z44" t="s">
         <v>12</v>
@@ -6238,7 +6253,7 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
@@ -6255,8 +6270,8 @@
       <c r="F45" t="s">
         <v>12</v>
       </c>
-      <c r="G45">
-        <v>1</v>
+      <c r="G45" t="s">
+        <v>12</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
@@ -6282,8 +6297,8 @@
       <c r="O45" t="s">
         <v>12</v>
       </c>
-      <c r="P45" t="s">
-        <v>12</v>
+      <c r="P45">
+        <v>1</v>
       </c>
       <c r="Q45" t="s">
         <v>12</v>
@@ -6297,21 +6312,21 @@
       <c r="T45" t="s">
         <v>12</v>
       </c>
-      <c r="U45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V45">
+      <c r="U45">
         <v>2</v>
       </c>
+      <c r="V45" t="s">
+        <v>12</v>
+      </c>
       <c r="W45">
         <v>1</v>
       </c>
       <c r="X45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z45" t="s">
         <v>12</v>
@@ -6367,20 +6382,20 @@
       <c r="AQ45" t="s">
         <v>12</v>
       </c>
-      <c r="AR45" t="s">
-        <v>12</v>
+      <c r="AR45">
+        <v>1</v>
       </c>
       <c r="AS45" t="s">
         <v>12</v>
       </c>
       <c r="AT45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
@@ -6409,11 +6424,11 @@
       <c r="J46" t="s">
         <v>12</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>12</v>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
       </c>
       <c r="M46" t="s">
         <v>12</v>
@@ -6453,7 +6468,7 @@
       </c>
       <c r="Y46">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z46" t="s">
         <v>12</v>
@@ -6521,10 +6536,142 @@
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47">
+        <v>6</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>4</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>12</v>
+      </c>
       <c r="AT47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6532,7 +6679,7 @@
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -6540,17 +6687,17 @@
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="D48">
-        <v>20</v>
+      <c r="D48" t="s">
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>20</v>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
@@ -6558,14 +6705,14 @@
       <c r="I48" t="s">
         <v>12</v>
       </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48" t="s">
-        <v>12</v>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
       <c r="M48" t="s">
         <v>12</v>
@@ -6573,17 +6720,17 @@
       <c r="N48" t="s">
         <v>12</v>
       </c>
-      <c r="O48">
-        <v>4</v>
-      </c>
-      <c r="P48">
-        <v>2</v>
-      </c>
-      <c r="Q48">
-        <v>54</v>
-      </c>
-      <c r="R48">
-        <v>6</v>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>12</v>
+      </c>
+      <c r="R48" t="s">
+        <v>12</v>
       </c>
       <c r="S48" t="s">
         <v>12</v>
@@ -6594,18 +6741,18 @@
       <c r="U48" t="s">
         <v>12</v>
       </c>
-      <c r="V48">
-        <v>42</v>
-      </c>
-      <c r="W48">
-        <v>6</v>
+      <c r="V48" t="s">
+        <v>12</v>
+      </c>
+      <c r="W48" t="s">
+        <v>12</v>
       </c>
       <c r="X48" t="s">
         <v>12</v>
       </c>
       <c r="Y48">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="Z48" t="s">
         <v>12</v>
@@ -6674,7 +6821,7 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
@@ -6700,11 +6847,11 @@
       <c r="I49" t="s">
         <v>12</v>
       </c>
-      <c r="J49">
-        <v>3</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
       </c>
       <c r="L49" t="s">
         <v>12</v>
@@ -6712,42 +6859,42 @@
       <c r="M49" t="s">
         <v>12</v>
       </c>
-      <c r="N49">
-        <v>1</v>
+      <c r="N49" t="s">
+        <v>12</v>
       </c>
       <c r="O49" t="s">
         <v>12</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49">
+      <c r="P49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R49" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" t="s">
+        <v>12</v>
+      </c>
+      <c r="U49" t="s">
+        <v>12</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
         <v>4</v>
-      </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="S49">
-        <v>2</v>
-      </c>
-      <c r="T49">
-        <v>16</v>
-      </c>
-      <c r="U49">
-        <v>3</v>
-      </c>
-      <c r="V49">
-        <v>8</v>
-      </c>
-      <c r="W49">
-        <v>3</v>
-      </c>
-      <c r="X49" t="s">
-        <v>12</v>
       </c>
       <c r="Y49">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="Z49" t="s">
         <v>12</v>
@@ -6815,152 +6962,152 @@
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" t="s">
+        <v>12</v>
+      </c>
+      <c r="U50" t="s">
+        <v>12</v>
+      </c>
+      <c r="V50" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" t="s">
+        <v>12</v>
+      </c>
+      <c r="X50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>12</v>
+      </c>
       <c r="AT50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" t="s">
-        <v>12</v>
-      </c>
-      <c r="P51" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>12</v>
-      </c>
-      <c r="R51" t="s">
-        <v>12</v>
-      </c>
-      <c r="S51" t="s">
-        <v>12</v>
-      </c>
-      <c r="T51" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51" t="s">
-        <v>12</v>
-      </c>
-      <c r="V51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W51" t="s">
-        <v>12</v>
-      </c>
-      <c r="X51" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y51">
-        <f>SUM(B51:X51)</f>
-        <v>1</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>12</v>
-      </c>
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="AT51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6968,37 +7115,37 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="D52" t="s">
-        <v>12</v>
+      <c r="D52">
+        <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
+      <c r="F52">
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>12</v>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
       </c>
       <c r="L52" t="s">
         <v>12</v>
@@ -7006,20 +7153,20 @@
       <c r="M52" t="s">
         <v>12</v>
       </c>
-      <c r="N52">
-        <v>10</v>
-      </c>
-      <c r="O52" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>12</v>
-      </c>
-      <c r="R52" t="s">
-        <v>12</v>
+      <c r="N52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>54</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
       </c>
       <c r="S52" t="s">
         <v>12</v>
@@ -7030,18 +7177,18 @@
       <c r="U52" t="s">
         <v>12</v>
       </c>
-      <c r="V52" t="s">
-        <v>12</v>
-      </c>
-      <c r="W52" t="s">
-        <v>12</v>
-      </c>
-      <c r="X52">
+      <c r="V52">
+        <v>42</v>
+      </c>
+      <c r="W52">
         <v>6</v>
       </c>
+      <c r="X52" t="s">
+        <v>12</v>
+      </c>
       <c r="Y52">
-        <f t="shared" ref="Y52:Y77" si="5">SUM(B52:X52)</f>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="Z52" t="s">
         <v>12</v>
@@ -7110,16 +7257,16 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="D53">
-        <v>37</v>
+      <c r="D53" t="s">
+        <v>12</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -7127,8 +7274,8 @@
       <c r="F53" t="s">
         <v>12</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
+      <c r="G53">
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
@@ -7136,11 +7283,11 @@
       <c r="I53" t="s">
         <v>12</v>
       </c>
-      <c r="J53" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" t="s">
-        <v>12</v>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>12</v>
@@ -7149,41 +7296,41 @@
         <v>12</v>
       </c>
       <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>16</v>
+      </c>
+      <c r="U53">
         <v>3</v>
       </c>
-      <c r="O53" t="s">
-        <v>12</v>
-      </c>
-      <c r="P53" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>12</v>
-      </c>
-      <c r="R53" t="s">
-        <v>12</v>
-      </c>
-      <c r="S53" t="s">
-        <v>12</v>
-      </c>
-      <c r="T53" t="s">
-        <v>12</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53" t="s">
-        <v>12</v>
-      </c>
-      <c r="W53" t="s">
-        <v>12</v>
-      </c>
-      <c r="X53">
-        <v>2</v>
+      <c r="V53">
+        <v>8</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53" t="s">
+        <v>12</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="Z53" t="s">
         <v>12</v>
@@ -7251,148 +7398,20 @@
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O54" t="s">
-        <v>12</v>
-      </c>
-      <c r="P54" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>12</v>
-      </c>
-      <c r="R54" t="s">
-        <v>12</v>
-      </c>
-      <c r="S54" t="s">
-        <v>12</v>
-      </c>
-      <c r="T54" t="s">
-        <v>12</v>
-      </c>
-      <c r="U54" t="s">
-        <v>12</v>
-      </c>
-      <c r="V54" t="s">
-        <v>12</v>
-      </c>
-      <c r="W54" t="s">
-        <v>12</v>
-      </c>
-      <c r="X54" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>12</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="AT54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -7462,7 +7481,7 @@
         <v>12</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="5"/>
+        <f>SUM(B55:X55)</f>
         <v>1</v>
       </c>
       <c r="Z55" t="s">
@@ -7495,8 +7514,8 @@
       <c r="AI55" t="s">
         <v>12</v>
       </c>
-      <c r="AJ55">
-        <v>1</v>
+      <c r="AJ55" t="s">
+        <v>12</v>
       </c>
       <c r="AK55" t="s">
         <v>12</v>
@@ -7527,57 +7546,146 @@
       </c>
       <c r="AT55">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
+      <c r="A56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>10</v>
+      </c>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>12</v>
+      </c>
+      <c r="R56" t="s">
+        <v>12</v>
+      </c>
+      <c r="S56" t="s">
+        <v>12</v>
+      </c>
+      <c r="T56" t="s">
+        <v>12</v>
+      </c>
+      <c r="U56" t="s">
+        <v>12</v>
+      </c>
+      <c r="V56" t="s">
+        <v>12</v>
+      </c>
+      <c r="W56" t="s">
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" ref="Y56:Y83" si="4">SUM(B56:X56)</f>
+        <v>33</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>12</v>
+      </c>
       <c r="AT56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7585,158 +7693,290 @@
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" t="s">
+        <v>12</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57" t="s">
+        <v>12</v>
+      </c>
+      <c r="W57" t="s">
+        <v>12</v>
+      </c>
+      <c r="X57">
+        <v>2</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS57" t="s">
         <v>12</v>
       </c>
       <c r="AT57">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>72</v>
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>12</v>
+      </c>
+      <c r="R58" t="s">
+        <v>12</v>
+      </c>
+      <c r="S58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T58" t="s">
+        <v>12</v>
+      </c>
+      <c r="U58" t="s">
+        <v>12</v>
+      </c>
+      <c r="V58" t="s">
+        <v>12</v>
+      </c>
+      <c r="W58" t="s">
+        <v>12</v>
+      </c>
+      <c r="X58" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>12</v>
       </c>
       <c r="AT58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -7804,6 +8044,10 @@
       <c r="X59" t="s">
         <v>12</v>
       </c>
+      <c r="Y59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Z59" t="s">
         <v>12</v>
       </c>
@@ -7834,8 +8078,8 @@
       <c r="AI59" t="s">
         <v>12</v>
       </c>
-      <c r="AJ59" t="s">
-        <v>12</v>
+      <c r="AJ59">
+        <v>1</v>
       </c>
       <c r="AK59" t="s">
         <v>12</v>
@@ -7861,8 +8105,8 @@
       <c r="AR59" t="s">
         <v>12</v>
       </c>
-      <c r="AS59">
-        <v>1</v>
+      <c r="AS59" t="s">
+        <v>12</v>
       </c>
       <c r="AT59">
         <f t="shared" si="0"/>
@@ -7870,142 +8114,53 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60" t="s">
-        <v>12</v>
-      </c>
-      <c r="P60" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>12</v>
-      </c>
-      <c r="R60" t="s">
-        <v>12</v>
-      </c>
-      <c r="S60" t="s">
-        <v>12</v>
-      </c>
-      <c r="T60" t="s">
-        <v>12</v>
-      </c>
-      <c r="U60" t="s">
-        <v>12</v>
-      </c>
-      <c r="V60" t="s">
-        <v>12</v>
-      </c>
-      <c r="W60" t="s">
-        <v>12</v>
-      </c>
-      <c r="X60" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS60" t="s">
-        <v>12</v>
-      </c>
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
       <c r="AT60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8013,291 +8168,155 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
-      <c r="J61">
-        <v>9</v>
-      </c>
-      <c r="K61">
-        <v>7</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61">
-        <v>16</v>
-      </c>
-      <c r="O61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P61">
-        <v>4</v>
-      </c>
-      <c r="Q61">
-        <v>17</v>
-      </c>
-      <c r="R61" t="s">
-        <v>12</v>
-      </c>
-      <c r="S61" t="s">
-        <v>12</v>
-      </c>
-      <c r="T61" t="s">
-        <v>12</v>
-      </c>
-      <c r="U61">
-        <v>9</v>
-      </c>
-      <c r="V61" t="s">
-        <v>12</v>
-      </c>
-      <c r="W61">
-        <v>2</v>
-      </c>
-      <c r="X61">
-        <v>21</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR61">
-        <v>1</v>
-      </c>
-      <c r="AS61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AT61">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
-      <c r="R62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S62" t="s">
-        <v>12</v>
-      </c>
-      <c r="T62" t="s">
-        <v>12</v>
-      </c>
-      <c r="U62" t="s">
-        <v>12</v>
-      </c>
-      <c r="V62" t="s">
-        <v>12</v>
-      </c>
-      <c r="W62" t="s">
-        <v>12</v>
-      </c>
-      <c r="X62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR62">
-        <v>2</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>12</v>
+      <c r="A62" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AT62">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -8422,11 +8441,11 @@
       <c r="AQ63" t="s">
         <v>12</v>
       </c>
-      <c r="AR63">
-        <v>1</v>
-      </c>
-      <c r="AS63" t="s">
-        <v>12</v>
+      <c r="AR63" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
       </c>
       <c r="AT63">
         <f t="shared" si="0"/>
@@ -8435,7 +8454,7 @@
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -8444,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -8462,62 +8481,62 @@
         <v>12</v>
       </c>
       <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>12</v>
+      </c>
+      <c r="R64" t="s">
+        <v>12</v>
+      </c>
+      <c r="S64" t="s">
+        <v>12</v>
+      </c>
+      <c r="T64" t="s">
+        <v>12</v>
+      </c>
+      <c r="U64" t="s">
+        <v>12</v>
+      </c>
+      <c r="V64" t="s">
+        <v>12</v>
+      </c>
+      <c r="W64" t="s">
+        <v>12</v>
+      </c>
+      <c r="X64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64" t="s">
-        <v>12</v>
-      </c>
-      <c r="P64" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>12</v>
-      </c>
-      <c r="R64" t="s">
-        <v>12</v>
-      </c>
-      <c r="S64" t="s">
-        <v>12</v>
-      </c>
-      <c r="T64" t="s">
-        <v>12</v>
-      </c>
-      <c r="U64" t="s">
-        <v>12</v>
-      </c>
-      <c r="V64" t="s">
-        <v>12</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
       <c r="Z64" t="s">
         <v>12</v>
       </c>
       <c r="AA64" t="s">
         <v>12</v>
       </c>
-      <c r="AB64">
-        <v>1</v>
+      <c r="AB64" t="s">
+        <v>12</v>
       </c>
       <c r="AC64" t="s">
         <v>12</v>
@@ -8534,8 +8553,8 @@
       <c r="AG64" t="s">
         <v>12</v>
       </c>
-      <c r="AH64">
-        <v>1</v>
+      <c r="AH64" t="s">
+        <v>12</v>
       </c>
       <c r="AI64" t="s">
         <v>12</v>
@@ -8543,8 +8562,8 @@
       <c r="AJ64" t="s">
         <v>12</v>
       </c>
-      <c r="AK64">
-        <v>1</v>
+      <c r="AK64" t="s">
+        <v>12</v>
       </c>
       <c r="AL64" t="s">
         <v>12</v>
@@ -8564,168 +8583,303 @@
       <c r="AQ64" t="s">
         <v>12</v>
       </c>
-      <c r="AR64">
-        <v>4</v>
+      <c r="AR64" t="s">
+        <v>12</v>
       </c>
       <c r="AS64" t="s">
         <v>12</v>
       </c>
       <c r="AT64">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS65" s="2">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>12</v>
+      </c>
+      <c r="R65" t="s">
+        <v>12</v>
+      </c>
+      <c r="S65" t="s">
+        <v>12</v>
+      </c>
+      <c r="T65" t="s">
+        <v>12</v>
+      </c>
+      <c r="U65" t="s">
+        <v>12</v>
+      </c>
+      <c r="V65" t="s">
+        <v>12</v>
+      </c>
+      <c r="W65" t="s">
+        <v>12</v>
+      </c>
+      <c r="X65" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z65">
+        <v>3</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>12</v>
       </c>
       <c r="AT65">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>77</v>
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>16</v>
+      </c>
+      <c r="O66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <v>17</v>
+      </c>
+      <c r="R66" t="s">
+        <v>12</v>
+      </c>
+      <c r="S66" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" t="s">
+        <v>12</v>
+      </c>
+      <c r="U66">
+        <v>9</v>
+      </c>
+      <c r="V66" t="s">
+        <v>12</v>
+      </c>
+      <c r="W66">
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <v>21</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>12</v>
       </c>
       <c r="AT66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -8736,8 +8890,8 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -8772,11 +8926,11 @@
       <c r="P67" t="s">
         <v>12</v>
       </c>
-      <c r="Q67" t="s">
-        <v>12</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67" t="s">
+        <v>12</v>
       </c>
       <c r="S67" t="s">
         <v>12</v>
@@ -8797,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Z67" t="s">
@@ -8854,20 +9008,20 @@
       <c r="AQ67" t="s">
         <v>12</v>
       </c>
-      <c r="AR67" t="s">
-        <v>12</v>
+      <c r="AR67">
+        <v>2</v>
       </c>
       <c r="AS67" t="s">
         <v>12</v>
       </c>
       <c r="AT67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -8875,8 +9029,8 @@
       <c r="C68" t="s">
         <v>12</v>
       </c>
-      <c r="D68">
-        <v>1</v>
+      <c r="D68" t="s">
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -8893,8 +9047,8 @@
       <c r="I68" t="s">
         <v>12</v>
       </c>
-      <c r="J68">
-        <v>1</v>
+      <c r="J68" t="s">
+        <v>12</v>
       </c>
       <c r="K68" t="s">
         <v>12</v>
@@ -8938,10 +9092,6 @@
       <c r="X68" t="s">
         <v>12</v>
       </c>
-      <c r="Y68">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
       <c r="Z68" t="s">
         <v>12</v>
       </c>
@@ -8996,20 +9146,20 @@
       <c r="AQ68" t="s">
         <v>12</v>
       </c>
-      <c r="AR68" t="s">
-        <v>12</v>
+      <c r="AR68">
+        <v>1</v>
       </c>
       <c r="AS68" t="s">
         <v>12</v>
       </c>
       <c r="AT68">
-        <f t="shared" ref="AT68:AT77" si="6">SUM(Z68:AS68)</f>
-        <v>0</v>
+        <f t="shared" ref="AT68:AT83" si="5">SUM(Z68:AS68)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -9068,8 +9218,8 @@
       <c r="T69" t="s">
         <v>12</v>
       </c>
-      <c r="U69">
-        <v>1</v>
+      <c r="U69" t="s">
+        <v>12</v>
       </c>
       <c r="V69" t="s">
         <v>12</v>
@@ -9080,78 +9230,77 @@
       <c r="X69" t="s">
         <v>12</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z69">
+        <v>2</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT69">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT69">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -9159,8 +9308,8 @@
       <c r="C70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="s">
-        <v>12</v>
+      <c r="D70">
+        <v>7</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -9177,8 +9326,8 @@
       <c r="I70" t="s">
         <v>12</v>
       </c>
-      <c r="J70" t="s">
-        <v>12</v>
+      <c r="J70">
+        <v>2</v>
       </c>
       <c r="K70" t="s">
         <v>12</v>
@@ -9189,8 +9338,8 @@
       <c r="M70" t="s">
         <v>12</v>
       </c>
-      <c r="N70" t="s">
-        <v>12</v>
+      <c r="N70">
+        <v>4</v>
       </c>
       <c r="O70" t="s">
         <v>12</v>
@@ -9216,20 +9365,24 @@
       <c r="V70" t="s">
         <v>12</v>
       </c>
-      <c r="W70" t="s">
-        <v>12</v>
+      <c r="W70">
+        <v>1</v>
       </c>
       <c r="X70" t="s">
         <v>12</v>
       </c>
+      <c r="Y70">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
       <c r="Z70" t="s">
         <v>12</v>
       </c>
       <c r="AA70" t="s">
         <v>12</v>
       </c>
-      <c r="AB70" t="s">
-        <v>12</v>
+      <c r="AB70">
+        <v>1</v>
       </c>
       <c r="AC70" t="s">
         <v>12</v>
@@ -9246,8 +9399,8 @@
       <c r="AG70" t="s">
         <v>12</v>
       </c>
-      <c r="AH70" t="s">
-        <v>12</v>
+      <c r="AH70">
+        <v>1</v>
       </c>
       <c r="AI70" t="s">
         <v>12</v>
@@ -9255,8 +9408,8 @@
       <c r="AJ70" t="s">
         <v>12</v>
       </c>
-      <c r="AK70" t="s">
-        <v>12</v>
+      <c r="AK70">
+        <v>1</v>
       </c>
       <c r="AL70" t="s">
         <v>12</v>
@@ -9277,296 +9430,167 @@
         <v>12</v>
       </c>
       <c r="AR70">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>12</v>
       </c>
       <c r="AT70">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" t="s">
-        <v>12</v>
-      </c>
-      <c r="O71" t="s">
-        <v>12</v>
-      </c>
-      <c r="P71" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>12</v>
-      </c>
-      <c r="R71" t="s">
-        <v>12</v>
-      </c>
-      <c r="S71" t="s">
-        <v>12</v>
-      </c>
-      <c r="T71" t="s">
-        <v>12</v>
-      </c>
-      <c r="U71" t="s">
-        <v>12</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y71">
+        <v>117</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS71" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT71">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Z71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" t="s">
-        <v>12</v>
-      </c>
-      <c r="O72" t="s">
-        <v>12</v>
-      </c>
-      <c r="P72" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>12</v>
-      </c>
-      <c r="R72" t="s">
-        <v>12</v>
-      </c>
-      <c r="S72" t="s">
-        <v>12</v>
-      </c>
-      <c r="T72" t="s">
-        <v>12</v>
-      </c>
-      <c r="U72" t="s">
-        <v>12</v>
-      </c>
-      <c r="V72" t="s">
-        <v>12</v>
-      </c>
-      <c r="W72" t="s">
-        <v>12</v>
-      </c>
-      <c r="X72" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH72">
-        <v>1</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>12</v>
+      <c r="A72" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="AT72">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -9577,8 +9601,8 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -9616,20 +9640,20 @@
       <c r="Q73" t="s">
         <v>12</v>
       </c>
-      <c r="R73" t="s">
-        <v>12</v>
+      <c r="R73">
+        <v>1</v>
       </c>
       <c r="S73" t="s">
         <v>12</v>
       </c>
-      <c r="T73">
-        <v>5</v>
+      <c r="T73" t="s">
+        <v>12</v>
       </c>
       <c r="U73" t="s">
         <v>12</v>
       </c>
-      <c r="V73">
-        <v>1</v>
+      <c r="V73" t="s">
+        <v>12</v>
       </c>
       <c r="W73" t="s">
         <v>12</v>
@@ -9638,77 +9662,77 @@
         <v>12</v>
       </c>
       <c r="Y73">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT73">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH73">
-        <v>1</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT73">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -9717,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -9734,8 +9758,8 @@
       <c r="I74" t="s">
         <v>12</v>
       </c>
-      <c r="J74" t="s">
-        <v>12</v>
+      <c r="J74">
+        <v>1</v>
       </c>
       <c r="K74" t="s">
         <v>12</v>
@@ -9752,11 +9776,11 @@
       <c r="O74" t="s">
         <v>12</v>
       </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
-      <c r="Q74">
-        <v>1</v>
+      <c r="P74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>12</v>
       </c>
       <c r="R74" t="s">
         <v>12</v>
@@ -9767,90 +9791,90 @@
       <c r="T74" t="s">
         <v>12</v>
       </c>
-      <c r="U74">
-        <v>6</v>
+      <c r="U74" t="s">
+        <v>12</v>
       </c>
       <c r="V74" t="s">
         <v>12</v>
       </c>
-      <c r="W74">
-        <v>3</v>
-      </c>
-      <c r="X74">
-        <v>3</v>
+      <c r="W74" t="s">
+        <v>12</v>
+      </c>
+      <c r="X74" t="s">
+        <v>12</v>
       </c>
       <c r="Y74">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT74">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR74">
-        <v>1</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT74">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -9858,8 +9882,8 @@
       <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="D75">
-        <v>1</v>
+      <c r="D75" t="s">
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -9876,11 +9900,11 @@
       <c r="I75" t="s">
         <v>12</v>
       </c>
-      <c r="J75">
-        <v>8</v>
-      </c>
-      <c r="K75">
-        <v>2</v>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
       </c>
       <c r="L75" t="s">
         <v>12</v>
@@ -9888,17 +9912,17 @@
       <c r="M75" t="s">
         <v>12</v>
       </c>
-      <c r="N75">
-        <v>1</v>
+      <c r="N75" t="s">
+        <v>12</v>
       </c>
       <c r="O75" t="s">
         <v>12</v>
       </c>
-      <c r="P75">
-        <v>3</v>
-      </c>
-      <c r="Q75">
-        <v>22</v>
+      <c r="P75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>12</v>
       </c>
       <c r="R75" t="s">
         <v>12</v>
@@ -9910,89 +9934,89 @@
         <v>12</v>
       </c>
       <c r="U75">
-        <v>2</v>
-      </c>
-      <c r="V75">
-        <v>3</v>
-      </c>
-      <c r="W75">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="V75" t="s">
+        <v>12</v>
+      </c>
+      <c r="W75" t="s">
+        <v>12</v>
       </c>
       <c r="X75" t="s">
         <v>12</v>
       </c>
       <c r="Y75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT75">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR75">
-        <v>2</v>
-      </c>
-      <c r="AS75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT75">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -10039,8 +10063,8 @@
       <c r="P76" t="s">
         <v>12</v>
       </c>
-      <c r="Q76">
-        <v>2</v>
+      <c r="Q76" t="s">
+        <v>12</v>
       </c>
       <c r="R76" t="s">
         <v>12</v>
@@ -10057,84 +10081,77 @@
       <c r="V76" t="s">
         <v>12</v>
       </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76">
-        <v>1</v>
-      </c>
-      <c r="Y76">
+      <c r="W76" t="s">
+        <v>12</v>
+      </c>
+      <c r="X76" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT76">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -10181,8 +10198,8 @@
       <c r="P77" t="s">
         <v>12</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
+      <c r="Q77" t="s">
+        <v>12</v>
       </c>
       <c r="R77" t="s">
         <v>12</v>
@@ -10197,185 +10214,1035 @@
         <v>12</v>
       </c>
       <c r="V77">
-        <v>7</v>
-      </c>
-      <c r="W77" t="s">
-        <v>12</v>
-      </c>
-      <c r="X77">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77" t="s">
+        <v>12</v>
       </c>
       <c r="Y77">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT77">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH77">
-        <v>1</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT77">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>12</v>
+      </c>
+      <c r="R78" t="s">
+        <v>12</v>
+      </c>
+      <c r="S78" t="s">
+        <v>12</v>
+      </c>
+      <c r="T78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V78" t="s">
+        <v>12</v>
+      </c>
+      <c r="W78" t="s">
+        <v>12</v>
+      </c>
+      <c r="X78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>12</v>
+      </c>
+      <c r="R79" t="s">
+        <v>12</v>
+      </c>
+      <c r="S79" t="s">
+        <v>12</v>
+      </c>
+      <c r="T79">
+        <v>5</v>
+      </c>
+      <c r="U79" t="s">
+        <v>12</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>12</v>
+      </c>
+      <c r="X79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>12</v>
+      </c>
+      <c r="S80" t="s">
+        <v>12</v>
+      </c>
+      <c r="T80" t="s">
+        <v>12</v>
+      </c>
+      <c r="U80">
+        <v>6</v>
+      </c>
+      <c r="V80" t="s">
+        <v>12</v>
+      </c>
+      <c r="W80">
+        <v>3</v>
+      </c>
+      <c r="X80">
+        <v>3</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>22</v>
+      </c>
+      <c r="R81" t="s">
+        <v>12</v>
+      </c>
+      <c r="S81" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" t="s">
+        <v>12</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>5</v>
+      </c>
+      <c r="X81" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82" t="s">
+        <v>12</v>
+      </c>
+      <c r="U82" t="s">
+        <v>12</v>
+      </c>
+      <c r="V82" t="s">
+        <v>12</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" t="s">
+        <v>12</v>
+      </c>
+      <c r="U83" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83">
+        <v>7</v>
+      </c>
+      <c r="W83" t="s">
+        <v>12</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH83">
+        <v>1</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B78">
-        <f>SUM(B3:B77)</f>
+      <c r="B84">
+        <f t="shared" ref="B84:Y84" si="6">SUM(B3:B83)</f>
         <v>2</v>
       </c>
-      <c r="C78">
-        <f>SUM(C3:C77)</f>
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <f>SUM(D3:D77)</f>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="E78">
-        <f>SUM(E3:E77)</f>
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <f>SUM(F3:F77)</f>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G78">
-        <f>SUM(G3:G77)</f>
+      <c r="G84">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="H78">
-        <f>SUM(H3:H77)</f>
+      <c r="H84">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I78">
-        <f>SUM(I3:I77)</f>
+      <c r="I84">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J78">
-        <f>SUM(J3:J77)</f>
+      <c r="J84">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="K78">
-        <f>SUM(K3:K77)</f>
+      <c r="K84">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="L78">
-        <f>SUM(L3:L77)</f>
+      <c r="L84">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="M78">
-        <f>SUM(M3:M77)</f>
+      <c r="M84">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="N78">
-        <f>SUM(N3:N77)</f>
+      <c r="N84">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="O78">
-        <f>SUM(O3:O77)</f>
+      <c r="O84">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P78">
-        <f>SUM(P3:P77)</f>
+      <c r="P84">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="Q78">
-        <f>SUM(Q3:Q77)</f>
+      <c r="Q84">
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="R78">
-        <f>SUM(R3:R77)</f>
+      <c r="R84">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="S78">
-        <f>SUM(S3:S77)</f>
+      <c r="S84">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="T78">
-        <f>SUM(T3:T77)</f>
+      <c r="T84">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="U78">
-        <f>SUM(U3:U77)</f>
+      <c r="U84">
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="V78">
-        <f>SUM(V3:V77)</f>
+      <c r="V84">
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="W78">
-        <f>SUM(W3:W77)</f>
+      <c r="W84">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="X78">
-        <f>SUM(X3:X77)</f>
+      <c r="X84">
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="Y78">
-        <f>SUM(Y3:Y77)</f>
+      <c r="Y84">
+        <f t="shared" si="6"/>
         <v>799</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AT84" xr:uid="{CE19B23F-E421-4726-B0AC-440FEEAF8EFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Skyros List.xlsx
+++ b/Data/Skyros List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eranee\Desktop\Beetles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eranee\Desktop\Beetles\RScripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD4F63-8630-43EE-AA93-2165A074355A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B3767D-5C54-4184-A5CE-CA57FC1FC243}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{983DCE97-DC4A-4F6A-9F48-E813D0A7A667}"/>
   </bookViews>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +436,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,10 +468,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3126BC85-CBBC-4973-B6A7-AA5644100AFA}">
-  <dimension ref="A1:AT84"/>
+  <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU85" sqref="AU85"/>
+      <selection pane="bottomRight" activeCell="AU84" sqref="AU84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +805,7 @@
     <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -931,7 +939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +952,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1085,8 +1093,12 @@
         <f>SUM(Z3:AS3)</f>
         <v>0</v>
       </c>
+      <c r="AU3">
+        <f>SUM(Y3,AT3)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1239,12 @@
         <f t="shared" ref="AT4:AT67" si="0">SUM(Z4:AS4)</f>
         <v>0</v>
       </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU67" si="1">SUM(Y4,AT4)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1385,8 +1405,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1527,8 +1551,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1669,8 +1697,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1811,8 +1843,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1825,8 +1861,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1967,8 +2007,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1981,8 +2025,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2056,7 +2104,7 @@
         <v>12</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13:Y20" si="1">SUM(C13:X13)</f>
+        <f t="shared" ref="Y13:Y20" si="2">SUM(C13:X13)</f>
         <v>11</v>
       </c>
       <c r="Z13" t="s">
@@ -2123,8 +2171,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Z14" t="s">
@@ -2265,8 +2317,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AU14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2340,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Z15" t="s">
@@ -2407,8 +2463,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Z16" t="s">
@@ -2549,8 +2609,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="AU16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2624,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Z17" t="s">
@@ -2691,8 +2755,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2829,8 +2897,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2904,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Z19" t="s">
@@ -2971,8 +3043,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -3046,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z20" t="s">
@@ -3113,8 +3189,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -3123,8 +3203,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3265,8 +3349,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AU22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3275,8 +3363,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="Y24">
-        <f t="shared" ref="Y24:Y53" si="2">SUM(C24:X24)</f>
+        <f t="shared" ref="Y24:Y53" si="3">SUM(C24:X24)</f>
         <v>1</v>
       </c>
       <c r="Z24" t="s">
@@ -3417,8 +3509,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>123</v>
       </c>
@@ -3555,8 +3651,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -3630,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z26" t="s">
@@ -3697,8 +3797,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -3772,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="Z27" t="s">
@@ -3839,8 +3943,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU27">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -3914,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Z28" t="s">
@@ -3981,8 +4089,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -4056,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="Z29" t="s">
@@ -4123,8 +4235,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="AU29">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -4198,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="Z30" t="s">
@@ -4265,8 +4381,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
@@ -4340,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z31">
@@ -4407,8 +4527,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="AU31">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -4482,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Z32" t="s">
@@ -4549,8 +4673,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -4624,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Z33" t="s">
@@ -4691,9 +4819,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4766,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z34" t="s">
@@ -4833,9 +4965,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4908,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Z35" t="s">
@@ -4975,8 +5111,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU35">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -5050,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Z36" t="s">
@@ -5117,8 +5257,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>120</v>
       </c>
@@ -5192,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="Y37">
-        <f t="shared" ref="Y37" si="3">SUM(C37:X37)</f>
+        <f t="shared" ref="Y37" si="4">SUM(C37:X37)</f>
         <v>5</v>
       </c>
       <c r="Z37" t="s">
@@ -5259,9 +5403,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5400,8 +5548,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -5475,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Z39" t="s">
@@ -5542,8 +5694,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU39">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>126</v>
       </c>
@@ -5683,8 +5839,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="AU40">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -5758,7 +5918,7 @@
         <v>12</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Z41" t="s">
@@ -5825,8 +5985,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -5900,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z42" t="s">
@@ -5967,8 +6131,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -6108,8 +6276,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -6183,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Z44" t="s">
@@ -6250,8 +6422,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
@@ -6325,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Z45" t="s">
@@ -6392,8 +6568,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU45">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -6467,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Z46" t="s">
@@ -6534,8 +6714,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -6609,7 +6793,7 @@
         <v>4</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Z47" t="s">
@@ -6676,8 +6860,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU47">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -6751,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Z48" t="s">
@@ -6818,8 +7006,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -6893,7 +7085,7 @@
         <v>4</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Z49" t="s">
@@ -6960,8 +7152,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU49">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7035,7 +7231,7 @@
         <v>12</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z50" t="s">
@@ -7102,8 +7298,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -7112,8 +7312,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7187,7 +7391,7 @@
         <v>12</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="Z52" t="s">
@@ -7254,8 +7458,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU52">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
@@ -7329,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Z53" t="s">
@@ -7396,8 +7604,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU53">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -7406,8 +7618,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -7548,8 +7764,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -7623,7 +7843,7 @@
         <v>6</v>
       </c>
       <c r="Y56">
-        <f t="shared" ref="Y56:Y83" si="4">SUM(B56:X56)</f>
+        <f t="shared" ref="Y56:Y83" si="5">SUM(B56:X56)</f>
         <v>33</v>
       </c>
       <c r="Z56" t="s">
@@ -7690,8 +7910,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU56">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -7765,7 +7989,7 @@
         <v>2</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="Z57" t="s">
@@ -7832,8 +8056,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU57">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -7970,8 +8198,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AU58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>71</v>
       </c>
@@ -8045,7 +8277,7 @@
         <v>12</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z59" t="s">
@@ -8112,8 +8344,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -8165,8 +8401,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>114</v>
       </c>
@@ -8304,8 +8544,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -8313,8 +8557,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>115</v>
       </c>
@@ -8451,8 +8699,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AU63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -8526,7 +8778,7 @@
         <v>12</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z64" t="s">
@@ -8593,8 +8845,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AU64">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>122</v>
       </c>
@@ -8734,8 +8990,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AU65">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -8809,7 +9069,7 @@
         <v>21</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="Z66" t="s">
@@ -8876,8 +9136,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AU66">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -8951,7 +9215,7 @@
         <v>12</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z67" t="s">
@@ -9018,8 +9282,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AU67">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>116</v>
       </c>
@@ -9153,12 +9421,16 @@
         <v>12</v>
       </c>
       <c r="AT68">
-        <f t="shared" ref="AT68:AT83" si="5">SUM(Z68:AS68)</f>
+        <f t="shared" ref="AT68:AT83" si="6">SUM(Z68:AS68)</f>
+        <v>1</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" ref="AU68:AU83" si="7">SUM(Y68,AT68)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B69" t="s">
@@ -9294,585 +9566,609 @@
         <v>12</v>
       </c>
       <c r="AT69">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S70" t="s">
+        <v>12</v>
+      </c>
+      <c r="T70" t="s">
+        <v>12</v>
+      </c>
+      <c r="U70" t="s">
+        <v>12</v>
+      </c>
+      <c r="V70" t="s">
+        <v>12</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR70">
+        <v>4</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT70">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AU70">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS71" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O73" t="s">
+        <v>12</v>
+      </c>
+      <c r="P73" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>12</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T73" t="s">
+        <v>12</v>
+      </c>
+      <c r="U73" t="s">
+        <v>12</v>
+      </c>
+      <c r="V73" t="s">
+        <v>12</v>
+      </c>
+      <c r="W73" t="s">
+        <v>12</v>
+      </c>
+      <c r="X73" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y73">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="Z73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-      <c r="K70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70">
-        <v>4</v>
-      </c>
-      <c r="O70" t="s">
-        <v>12</v>
-      </c>
-      <c r="P70" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>12</v>
-      </c>
-      <c r="R70" t="s">
-        <v>12</v>
-      </c>
-      <c r="S70" t="s">
-        <v>12</v>
-      </c>
-      <c r="T70" t="s">
-        <v>12</v>
-      </c>
-      <c r="U70" t="s">
-        <v>12</v>
-      </c>
-      <c r="V70" t="s">
-        <v>12</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH70">
-        <v>1</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR70">
-        <v>4</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT70">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS71" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT71">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" t="s">
+        <v>12</v>
+      </c>
+      <c r="O74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" t="s">
+        <v>12</v>
+      </c>
+      <c r="S74" t="s">
+        <v>12</v>
+      </c>
+      <c r="T74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V74" t="s">
+        <v>12</v>
+      </c>
+      <c r="W74" t="s">
+        <v>12</v>
+      </c>
+      <c r="X74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y74">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="Z74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" t="s">
-        <v>12</v>
-      </c>
-      <c r="O73" t="s">
-        <v>12</v>
-      </c>
-      <c r="P73" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>12</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-      <c r="S73" t="s">
-        <v>12</v>
-      </c>
-      <c r="T73" t="s">
-        <v>12</v>
-      </c>
-      <c r="U73" t="s">
-        <v>12</v>
-      </c>
-      <c r="V73" t="s">
-        <v>12</v>
-      </c>
-      <c r="W73" t="s">
-        <v>12</v>
-      </c>
-      <c r="X73" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O74" t="s">
-        <v>12</v>
-      </c>
-      <c r="P74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>12</v>
-      </c>
-      <c r="R74" t="s">
-        <v>12</v>
-      </c>
-      <c r="S74" t="s">
-        <v>12</v>
-      </c>
-      <c r="T74" t="s">
-        <v>12</v>
-      </c>
-      <c r="U74" t="s">
-        <v>12</v>
-      </c>
-      <c r="V74" t="s">
-        <v>12</v>
-      </c>
-      <c r="W74" t="s">
-        <v>12</v>
-      </c>
-      <c r="X74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
@@ -9946,7 +10242,7 @@
         <v>12</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z75" t="s">
@@ -10010,11 +10306,15 @@
         <v>12</v>
       </c>
       <c r="AT75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AU75">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
@@ -10145,11 +10445,15 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
@@ -10223,7 +10527,7 @@
         <v>12</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z77" t="s">
@@ -10287,11 +10591,15 @@
         <v>12</v>
       </c>
       <c r="AT77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AU77">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>119</v>
       </c>
@@ -10425,11 +10733,15 @@
         <v>12</v>
       </c>
       <c r="AT78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -10503,7 +10815,7 @@
         <v>12</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Z79" t="s">
@@ -10567,11 +10879,15 @@
         <v>12</v>
       </c>
       <c r="AT79">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU79">
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -10645,7 +10961,7 @@
         <v>3</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="Z80" t="s">
@@ -10709,11 +11025,15 @@
         <v>12</v>
       </c>
       <c r="AT80">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU80">
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -10787,7 +11107,7 @@
         <v>12</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="Z81" t="s">
@@ -10851,11 +11171,15 @@
         <v>12</v>
       </c>
       <c r="AT81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
+      <c r="AU81">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -10929,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Z82" t="s">
@@ -10993,11 +11317,15 @@
         <v>12</v>
       </c>
       <c r="AT82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AU82">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -11071,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Z83" t="s">
@@ -11135,108 +11463,112 @@
         <v>12</v>
       </c>
       <c r="AT83">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU83">
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:Y84" si="6">SUM(B3:B83)</f>
+        <f t="shared" ref="B84:Y84" si="8">SUM(B3:B83)</f>
         <v>2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="J84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="M84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="R84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="S84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="T84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="U84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="V84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97</v>
       </c>
       <c r="W84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="X84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>799</v>
       </c>
     </row>

--- a/Data/Skyros List.xlsx
+++ b/Data/Skyros List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eranee\Desktop\Beetles\RScripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D0A7C-AB68-4D39-A17A-E7E0E5F3B9AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08C857-B254-45CA-B594-535EE3D9A321}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{983DCE97-DC4A-4F6A-9F48-E813D0A7A667}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="153">
   <si>
     <t>Omaliinae</t>
   </si>
@@ -457,6 +457,42 @@
   </si>
   <si>
     <t>Middle-european/mediterranian</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palaearctic </t>
+  </si>
+  <si>
+    <t>Middle eastern/caucasic</t>
+  </si>
+  <si>
+    <t>European/Russian</t>
+  </si>
+  <si>
+    <t>Western european</t>
+  </si>
+  <si>
+    <t>Mediterranian/middle eastern</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Endemic?</t>
+  </si>
+  <si>
+    <t>European/Middle-eastern</t>
+  </si>
+  <si>
+    <t>European/Caucasus</t>
+  </si>
+  <si>
+    <t>European/mediterranian</t>
+  </si>
+  <si>
+    <t>Greece/Turkey/Lebanon/Israel</t>
   </si>
 </sst>
 </file>
@@ -829,10 +865,10 @@
   <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV46" sqref="AV46"/>
+      <selection pane="bottomRight" activeCell="AV74" sqref="AV74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6875,6 +6911,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="AV46" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -7021,6 +7060,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="AV47" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -7167,8 +7209,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="AV48" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -7313,8 +7358,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="AV49" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -7459,8 +7507,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AV50" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -7474,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
@@ -7619,8 +7670,11 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
+      <c r="AV52" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -7765,8 +7819,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="AV53" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -7780,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -7925,8 +7982,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AV55" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -8071,8 +8131,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
+      <c r="AV56" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
@@ -8217,8 +8280,11 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
+      <c r="AV57" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>111</v>
       </c>
@@ -8359,8 +8425,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AV58" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>70</v>
       </c>
@@ -8505,8 +8574,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AV59" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>112</v>
       </c>
@@ -8563,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -8705,8 +8777,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AV61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -8719,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -8860,8 +8935,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AV63" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
@@ -9006,8 +9084,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AV64" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -9151,8 +9232,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="AV65" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -9297,8 +9381,11 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
+      <c r="AV66" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -9443,8 +9530,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="AV67" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
@@ -9585,8 +9675,11 @@
         <f t="shared" ref="AU68:AU83" si="7">SUM(Y68,AT68)</f>
         <v>1</v>
       </c>
+      <c r="AV68" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
@@ -9730,8 +9823,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AV69" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -9876,8 +9972,11 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
+      <c r="AV70" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>116</v>
       </c>
@@ -10019,8 +10118,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AV71" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -10033,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -10178,8 +10280,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AV73" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -10324,8 +10429,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AV74" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
@@ -10470,8 +10578,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="AV75" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>117</v>
       </c>
@@ -10609,8 +10720,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="AV76" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -10755,8 +10869,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AV77" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
@@ -10897,8 +11014,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="AV78" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -11043,8 +11163,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AV79" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -11189,8 +11312,11 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
+      <c r="AV80" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -11335,8 +11461,11 @@
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
+      <c r="AV81" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -11481,8 +11610,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="AV82" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -11627,8 +11759,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AV83" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
@@ -11732,6 +11867,6 @@
   </sheetData>
   <autoFilter ref="A1:AT84" xr:uid="{CE19B23F-E421-4726-B0AC-440FEEAF8EFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>